--- a/program.xlsx
+++ b/program.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="14080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>Wednesday, Sep 3</t>
   </si>
   <si>
-    <t>Session 1: OLAP</t>
-  </si>
-  <si>
     <t>Session Num</t>
   </si>
   <si>
@@ -1303,17 +1300,20 @@
   </si>
   <si>
     <t>6:30-10:00</t>
+  </si>
+  <si>
+    <t>Papers 1: OLAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1321,7 +1321,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1329,7 +1329,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1346,6 +1346,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1365,9 +1388,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1376,6 +1403,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1385,12 +1414,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
     <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1667,47 +1698,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -1745,50 +1776,50 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="70">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="81">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>53</v>
@@ -1804,33 +1835,33 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="56">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="54">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>54</v>
@@ -1843,36 +1874,36 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="56">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="67.5">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>52</v>
@@ -1891,9 +1922,10 @@
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C7:I7"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1903,46 +1935,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -1980,50 +2013,50 @@
       <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="84">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="94.5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>48</v>
@@ -2039,33 +2072,33 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="56">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="67.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>47</v>
@@ -2076,33 +2109,33 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2115,6 +2148,7 @@
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C7:I7"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
@@ -2127,50 +2161,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="14.25">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -2208,50 +2242,50 @@
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="56">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="81">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>49</v>
@@ -2267,13 +2301,13 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1">
       <c r="A8" t="s">
@@ -2281,19 +2315,19 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>50</v>
@@ -2306,36 +2340,36 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="42">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="67.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>51</v>
@@ -2348,16 +2382,16 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2370,6 +2404,7 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="C7:I7"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
@@ -2382,50 +2417,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2433,21 +2468,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2455,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2469,10 +2504,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2480,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2491,10 +2526,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2502,10 +2537,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2513,10 +2548,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2524,10 +2559,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2535,21 +2570,21 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2557,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2568,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2579,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2590,21 +2625,21 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2612,10 +2647,10 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2623,21 +2658,21 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2645,10 +2680,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
         <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2656,10 +2691,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
         <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2667,10 +2702,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
         <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2678,10 +2713,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
         <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2689,21 +2724,21 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
         <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2711,10 +2746,10 @@
         <v>5.2</v>
       </c>
       <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
         <v>115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2722,10 +2757,10 @@
         <v>5.2</v>
       </c>
       <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
         <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2733,10 +2768,10 @@
         <v>5.2</v>
       </c>
       <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2744,21 +2779,21 @@
         <v>5.2</v>
       </c>
       <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
         <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5.2</v>
-      </c>
-      <c r="B33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2766,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
         <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2777,43 +2812,43 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2821,10 +2856,10 @@
         <v>7.1</v>
       </c>
       <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
         <v>135</v>
-      </c>
-      <c r="C39" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2832,10 +2867,10 @@
         <v>7.1</v>
       </c>
       <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
         <v>137</v>
-      </c>
-      <c r="C40" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2843,10 +2878,10 @@
         <v>7.1</v>
       </c>
       <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
         <v>139</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2854,10 +2889,10 @@
         <v>7.1</v>
       </c>
       <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2865,10 +2900,10 @@
         <v>7.2</v>
       </c>
       <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
         <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2876,10 +2911,10 @@
         <v>7.2</v>
       </c>
       <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
         <v>145</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2887,10 +2922,10 @@
         <v>7.2</v>
       </c>
       <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
         <v>147</v>
-      </c>
-      <c r="C45" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2898,10 +2933,10 @@
         <v>7.2</v>
       </c>
       <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
         <v>149</v>
-      </c>
-      <c r="C46" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2909,10 +2944,10 @@
         <v>7.2</v>
       </c>
       <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
         <v>151</v>
-      </c>
-      <c r="C47" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2920,10 +2955,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
         <v>153</v>
-      </c>
-      <c r="C48" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2931,10 +2966,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
-      </c>
-      <c r="C49" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2942,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
         <v>157</v>
-      </c>
-      <c r="C50" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2953,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
         <v>159</v>
-      </c>
-      <c r="C51" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2964,10 +2999,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
         <v>161</v>
-      </c>
-      <c r="C52" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2975,10 +3010,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
         <v>163</v>
-      </c>
-      <c r="C53" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2986,10 +3021,10 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
         <v>165</v>
-      </c>
-      <c r="C54" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2997,10 +3032,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
         <v>167</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3008,10 +3043,10 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
         <v>169</v>
-      </c>
-      <c r="C56" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3019,10 +3054,10 @@
         <v>10.1</v>
       </c>
       <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
         <v>171</v>
-      </c>
-      <c r="C57" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3030,10 +3065,10 @@
         <v>10.1</v>
       </c>
       <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
         <v>173</v>
-      </c>
-      <c r="C58" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3041,10 +3076,10 @@
         <v>10.1</v>
       </c>
       <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
         <v>175</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3052,10 +3087,10 @@
         <v>10.1</v>
       </c>
       <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
         <v>177</v>
-      </c>
-      <c r="C60" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3063,10 +3098,10 @@
         <v>10.1</v>
       </c>
       <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
         <v>179</v>
-      </c>
-      <c r="C61" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3074,21 +3109,21 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
         <v>181</v>
-      </c>
-      <c r="C62" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
         <v>10.199999999999999</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3096,10 +3131,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
         <v>185</v>
-      </c>
-      <c r="C64" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3107,10 +3142,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
         <v>187</v>
-      </c>
-      <c r="C65" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3118,10 +3153,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
         <v>189</v>
-      </c>
-      <c r="C66" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3129,35 +3164,35 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
         <v>11</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="F68" t="s">
         <v>194</v>
-      </c>
-      <c r="F68" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
         <v>11</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3165,10 +3200,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" t="s">
         <v>198</v>
-      </c>
-      <c r="C70" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3176,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" t="s">
         <v>200</v>
-      </c>
-      <c r="C71" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3187,10 +3222,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
         <v>202</v>
-      </c>
-      <c r="C72" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3198,32 +3233,32 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
         <v>204</v>
-      </c>
-      <c r="C73" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
         <v>12</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
         <v>12</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3231,21 +3266,21 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
         <v>210</v>
-      </c>
-      <c r="C76" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
         <v>12</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3253,21 +3288,21 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
         <v>214</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
         <v>13</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3275,10 +3310,10 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
         <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3286,10 +3321,10 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
         <v>220</v>
-      </c>
-      <c r="C81" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3297,10 +3332,10 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
         <v>222</v>
-      </c>
-      <c r="C82" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3308,10 +3343,10 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" t="s">
         <v>224</v>
-      </c>
-      <c r="C83" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3319,10 +3354,10 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
         <v>226</v>
-      </c>
-      <c r="C84" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3330,10 +3365,10 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" t="s">
         <v>228</v>
-      </c>
-      <c r="C85" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3341,10 +3376,10 @@
         <v>14</v>
       </c>
       <c r="B86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" t="s">
         <v>230</v>
-      </c>
-      <c r="C86" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3352,10 +3387,10 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" t="s">
         <v>232</v>
-      </c>
-      <c r="C87" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3363,10 +3398,10 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" t="s">
         <v>234</v>
-      </c>
-      <c r="C88" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3374,10 +3409,10 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" t="s">
         <v>236</v>
-      </c>
-      <c r="C89" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3385,10 +3420,10 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" t="s">
         <v>238</v>
-      </c>
-      <c r="C90" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3396,10 +3431,10 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" t="s">
         <v>240</v>
-      </c>
-      <c r="C91" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3407,10 +3442,10 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" t="s">
         <v>242</v>
-      </c>
-      <c r="C92" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3418,21 +3453,21 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" t="s">
         <v>244</v>
-      </c>
-      <c r="C93" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
         <v>16</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3440,10 +3475,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" t="s">
         <v>248</v>
-      </c>
-      <c r="C95" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3451,10 +3486,10 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" t="s">
         <v>250</v>
-      </c>
-      <c r="C96" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3462,21 +3497,21 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" t="s">
         <v>252</v>
-      </c>
-      <c r="C97" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
         <v>16</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3484,10 +3519,10 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" t="s">
         <v>256</v>
-      </c>
-      <c r="C99" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3495,10 +3530,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" t="s">
         <v>258</v>
-      </c>
-      <c r="C100" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3506,10 +3541,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" t="s">
         <v>260</v>
-      </c>
-      <c r="C101" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3517,10 +3552,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" t="s">
         <v>262</v>
-      </c>
-      <c r="C102" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3528,10 +3563,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" t="s">
         <v>264</v>
-      </c>
-      <c r="C103" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3539,10 +3574,10 @@
         <v>18</v>
       </c>
       <c r="B104" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" t="s">
         <v>266</v>
-      </c>
-      <c r="C104" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3550,10 +3585,10 @@
         <v>18</v>
       </c>
       <c r="B105" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" t="s">
         <v>268</v>
-      </c>
-      <c r="C105" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3561,10 +3596,10 @@
         <v>18</v>
       </c>
       <c r="B106" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" t="s">
         <v>270</v>
-      </c>
-      <c r="C106" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3572,10 +3607,10 @@
         <v>18</v>
       </c>
       <c r="B107" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" t="s">
         <v>272</v>
-      </c>
-      <c r="C107" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3583,10 +3618,10 @@
         <v>18</v>
       </c>
       <c r="B108" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" t="s">
         <v>274</v>
-      </c>
-      <c r="C108" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3594,10 +3629,10 @@
         <v>18</v>
       </c>
       <c r="B109" t="s">
+        <v>275</v>
+      </c>
+      <c r="C109" t="s">
         <v>276</v>
-      </c>
-      <c r="C109" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3605,32 +3640,32 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" t="s">
         <v>278</v>
-      </c>
-      <c r="C110" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
         <v>19</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
         <v>19</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3638,10 +3673,10 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" t="s">
         <v>284</v>
-      </c>
-      <c r="C113" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3649,10 +3684,10 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
+        <v>285</v>
+      </c>
+      <c r="C114" t="s">
         <v>286</v>
-      </c>
-      <c r="C114" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3660,10 +3695,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B115" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" t="s">
         <v>288</v>
-      </c>
-      <c r="C115" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3671,43 +3706,43 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B116" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" t="s">
         <v>290</v>
-      </c>
-      <c r="C116" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
         <v>20.100000000000001</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
         <v>20.100000000000001</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
         <v>20.100000000000001</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3715,10 +3750,10 @@
         <v>20.2</v>
       </c>
       <c r="B120" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" t="s">
         <v>298</v>
-      </c>
-      <c r="C120" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3726,21 +3761,21 @@
         <v>20.2</v>
       </c>
       <c r="B121" t="s">
+        <v>299</v>
+      </c>
+      <c r="C121" t="s">
         <v>300</v>
-      </c>
-      <c r="C121" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
         <v>20.2</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3748,10 +3783,10 @@
         <v>20.2</v>
       </c>
       <c r="B123" t="s">
+        <v>303</v>
+      </c>
+      <c r="C123" t="s">
         <v>304</v>
-      </c>
-      <c r="C123" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3759,10 +3794,10 @@
         <v>20.2</v>
       </c>
       <c r="B124" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" t="s">
         <v>306</v>
-      </c>
-      <c r="C124" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3770,21 +3805,21 @@
         <v>20.2</v>
       </c>
       <c r="B125" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" t="s">
         <v>308</v>
-      </c>
-      <c r="C125" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
         <v>20.3</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3792,10 +3827,10 @@
         <v>20.3</v>
       </c>
       <c r="B127" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" t="s">
         <v>312</v>
-      </c>
-      <c r="C127" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3803,10 +3838,10 @@
         <v>20.3</v>
       </c>
       <c r="B128" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128" t="s">
         <v>314</v>
-      </c>
-      <c r="C128" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3814,10 +3849,10 @@
         <v>20.3</v>
       </c>
       <c r="B129" t="s">
+        <v>315</v>
+      </c>
+      <c r="C129" t="s">
         <v>316</v>
-      </c>
-      <c r="C129" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3825,10 +3860,10 @@
         <v>20.3</v>
       </c>
       <c r="B130" t="s">
+        <v>317</v>
+      </c>
+      <c r="C130" t="s">
         <v>318</v>
-      </c>
-      <c r="C130" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3836,10 +3871,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B131" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" t="s">
         <v>320</v>
-      </c>
-      <c r="C131" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3847,10 +3882,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B132" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" t="s">
         <v>322</v>
-      </c>
-      <c r="C132" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3858,21 +3893,21 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B133" t="s">
+        <v>323</v>
+      </c>
+      <c r="C133" t="s">
         <v>324</v>
-      </c>
-      <c r="C133" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
         <v>20.399999999999999</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3880,10 +3915,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B135" t="s">
+        <v>327</v>
+      </c>
+      <c r="C135" t="s">
         <v>328</v>
-      </c>
-      <c r="C135" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3891,10 +3926,10 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B136" t="s">
+        <v>329</v>
+      </c>
+      <c r="C136" t="s">
         <v>330</v>
-      </c>
-      <c r="C136" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3902,10 +3937,10 @@
         <v>21.1</v>
       </c>
       <c r="B137" t="s">
+        <v>331</v>
+      </c>
+      <c r="C137" t="s">
         <v>332</v>
-      </c>
-      <c r="C137" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3913,10 +3948,10 @@
         <v>21.1</v>
       </c>
       <c r="B138" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" t="s">
         <v>334</v>
-      </c>
-      <c r="C138" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3924,10 +3959,10 @@
         <v>21.1</v>
       </c>
       <c r="B139" t="s">
+        <v>335</v>
+      </c>
+      <c r="C139" t="s">
         <v>336</v>
-      </c>
-      <c r="C139" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3935,21 +3970,21 @@
         <v>21.1</v>
       </c>
       <c r="B140" t="s">
+        <v>337</v>
+      </c>
+      <c r="C140" t="s">
         <v>338</v>
-      </c>
-      <c r="C140" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
         <v>21.2</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3957,10 +3992,10 @@
         <v>21.2</v>
       </c>
       <c r="B142" t="s">
+        <v>341</v>
+      </c>
+      <c r="C142" t="s">
         <v>342</v>
-      </c>
-      <c r="C142" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3968,10 +4003,10 @@
         <v>21.2</v>
       </c>
       <c r="B143" t="s">
+        <v>343</v>
+      </c>
+      <c r="C143" t="s">
         <v>344</v>
-      </c>
-      <c r="C143" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3979,10 +4014,10 @@
         <v>21.2</v>
       </c>
       <c r="B144" t="s">
+        <v>345</v>
+      </c>
+      <c r="C144" t="s">
         <v>346</v>
-      </c>
-      <c r="C144" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3990,21 +4025,21 @@
         <v>21.2</v>
       </c>
       <c r="B145" t="s">
+        <v>347</v>
+      </c>
+      <c r="C145" t="s">
         <v>348</v>
-      </c>
-      <c r="C145" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
         <v>22</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4012,10 +4047,10 @@
         <v>22</v>
       </c>
       <c r="B147" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" t="s">
         <v>352</v>
-      </c>
-      <c r="C147" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4023,10 +4058,10 @@
         <v>22</v>
       </c>
       <c r="B148" t="s">
+        <v>353</v>
+      </c>
+      <c r="C148" t="s">
         <v>354</v>
-      </c>
-      <c r="C148" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4034,10 +4069,10 @@
         <v>22</v>
       </c>
       <c r="B149" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" t="s">
         <v>356</v>
-      </c>
-      <c r="C149" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4045,10 +4080,10 @@
         <v>22</v>
       </c>
       <c r="B150" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" t="s">
         <v>358</v>
-      </c>
-      <c r="C150" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4056,32 +4091,32 @@
         <v>22</v>
       </c>
       <c r="B151" t="s">
+        <v>359</v>
+      </c>
+      <c r="C151" t="s">
         <v>360</v>
-      </c>
-      <c r="C151" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
         <v>23</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
         <v>23</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4089,10 +4124,10 @@
         <v>23</v>
       </c>
       <c r="B154" t="s">
+        <v>365</v>
+      </c>
+      <c r="C154" t="s">
         <v>366</v>
-      </c>
-      <c r="C154" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4100,10 +4135,10 @@
         <v>23</v>
       </c>
       <c r="B155" t="s">
+        <v>367</v>
+      </c>
+      <c r="C155" t="s">
         <v>368</v>
-      </c>
-      <c r="C155" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4111,10 +4146,10 @@
         <v>23</v>
       </c>
       <c r="B156" t="s">
+        <v>369</v>
+      </c>
+      <c r="C156" t="s">
         <v>370</v>
-      </c>
-      <c r="C156" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4122,10 +4157,10 @@
         <v>24</v>
       </c>
       <c r="B157" t="s">
+        <v>371</v>
+      </c>
+      <c r="C157" t="s">
         <v>372</v>
-      </c>
-      <c r="C157" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4133,10 +4168,10 @@
         <v>24</v>
       </c>
       <c r="B158" t="s">
+        <v>373</v>
+      </c>
+      <c r="C158" t="s">
         <v>374</v>
-      </c>
-      <c r="C158" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4144,10 +4179,10 @@
         <v>24</v>
       </c>
       <c r="B159" t="s">
+        <v>375</v>
+      </c>
+      <c r="C159" t="s">
         <v>376</v>
-      </c>
-      <c r="C159" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4155,10 +4190,10 @@
         <v>24</v>
       </c>
       <c r="B160" t="s">
+        <v>377</v>
+      </c>
+      <c r="C160" t="s">
         <v>378</v>
-      </c>
-      <c r="C160" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4166,10 +4201,10 @@
         <v>24</v>
       </c>
       <c r="B161" t="s">
+        <v>379</v>
+      </c>
+      <c r="C161" t="s">
         <v>380</v>
-      </c>
-      <c r="C161" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4177,10 +4212,10 @@
         <v>25</v>
       </c>
       <c r="B162" t="s">
+        <v>381</v>
+      </c>
+      <c r="C162" t="s">
         <v>382</v>
-      </c>
-      <c r="C162" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4188,10 +4223,10 @@
         <v>25</v>
       </c>
       <c r="B163" t="s">
+        <v>383</v>
+      </c>
+      <c r="C163" t="s">
         <v>384</v>
-      </c>
-      <c r="C163" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4199,13 +4234,13 @@
         <v>25</v>
       </c>
       <c r="B164" t="s">
+        <v>385</v>
+      </c>
+      <c r="C164" t="s">
         <v>386</v>
       </c>
-      <c r="C164" t="s">
+      <c r="E164" t="s">
         <v>387</v>
-      </c>
-      <c r="E164" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4213,10 +4248,10 @@
         <v>25</v>
       </c>
       <c r="B165" t="s">
+        <v>388</v>
+      </c>
+      <c r="C165" t="s">
         <v>389</v>
-      </c>
-      <c r="C165" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4224,14 +4259,16 @@
         <v>25</v>
       </c>
       <c r="B166" t="s">
+        <v>390</v>
+      </c>
+      <c r="C166" t="s">
         <v>391</v>
       </c>
-      <c r="C166" t="s">
-        <v>392</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
